--- a/powerapp/data/uvls_assignment.xlsx
+++ b/powerapp/data/uvls_assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95528DB8-1828-4539-B31C-7F9B3DCCFE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D370D6F-3659-4ACE-9437-02AB8291DE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FE73BD3D-1E72-4362-9A62-AC365FB096D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FE73BD3D-1E72-4362-9A62-AC365FB096D7}"/>
   </bookViews>
   <sheets>
     <sheet name="uvls_assignment" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
-    <t>uvls_trip_id</t>
-  </si>
-  <si>
     <t>kcpk_33</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>bcvs_11</t>
+  </si>
+  <si>
+    <t>group_trip_id</t>
   </si>
 </sst>
 </file>
@@ -179,23 +179,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,18 +536,18 @@
   <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.58203125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="5"/>
+    <col min="2" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2">
         <v>2024</v>
@@ -552,194 +555,194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -808,13 +811,13 @@
     <row r="47" spans="1:1">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" s="7" customFormat="1">
+    <row r="48" spans="1:1" s="5" customFormat="1">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" s="7" customFormat="1">
+    <row r="49" spans="1:1" s="5" customFormat="1">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" s="7" customFormat="1">
+    <row r="50" spans="1:1" s="5" customFormat="1">
       <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1">
@@ -847,10 +850,10 @@
     <row r="60" spans="1:1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" s="7" customFormat="1">
+    <row r="61" spans="1:1" s="5" customFormat="1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" s="7" customFormat="1">
+    <row r="62" spans="1:1" s="5" customFormat="1">
       <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1">
@@ -949,16 +952,16 @@
     <row r="94" spans="1:1">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" s="7" customFormat="1">
+    <row r="95" spans="1:1" s="5" customFormat="1">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" s="7" customFormat="1">
+    <row r="96" spans="1:1" s="5" customFormat="1">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:1" s="7" customFormat="1">
+    <row r="97" spans="1:1" s="5" customFormat="1">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" s="7" customFormat="1">
+    <row r="98" spans="1:1" s="5" customFormat="1">
       <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1">
@@ -982,10 +985,10 @@
     <row r="105" spans="1:1">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:1" s="7" customFormat="1">
+    <row r="106" spans="1:1" s="5" customFormat="1">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:1" s="7" customFormat="1">
+    <row r="107" spans="1:1" s="5" customFormat="1">
       <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1">
@@ -1132,7 +1135,7 @@
     <row r="155" spans="1:1">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" s="7" customFormat="1">
+    <row r="156" spans="1:1" s="5" customFormat="1">
       <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1">
@@ -1294,34 +1297,34 @@
     <row r="209" spans="1:1">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:1" s="7" customFormat="1">
+    <row r="210" spans="1:1" s="5" customFormat="1">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:1" s="7" customFormat="1">
+    <row r="211" spans="1:1" s="5" customFormat="1">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:1" s="7" customFormat="1">
+    <row r="212" spans="1:1" s="5" customFormat="1">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" s="7" customFormat="1">
+    <row r="213" spans="1:1" s="5" customFormat="1">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" s="7" customFormat="1">
+    <row r="214" spans="1:1" s="5" customFormat="1">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:1" s="7" customFormat="1">
+    <row r="215" spans="1:1" s="5" customFormat="1">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" s="7" customFormat="1">
+    <row r="216" spans="1:1" s="5" customFormat="1">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:1" s="7" customFormat="1">
+    <row r="217" spans="1:1" s="5" customFormat="1">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:1" s="7" customFormat="1">
+    <row r="218" spans="1:1" s="5" customFormat="1">
       <c r="A218" s="3"/>
     </row>
-    <row r="219" spans="1:1" s="7" customFormat="1">
+    <row r="219" spans="1:1" s="5" customFormat="1">
       <c r="A219" s="3"/>
     </row>
     <row r="220" spans="1:1">
@@ -1348,10 +1351,10 @@
     <row r="227" spans="1:1">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" s="7" customFormat="1">
+    <row r="228" spans="1:1" s="5" customFormat="1">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" s="7" customFormat="1">
+    <row r="229" spans="1:1" s="5" customFormat="1">
       <c r="A229" s="3"/>
     </row>
     <row r="230" spans="1:1">
@@ -1432,22 +1435,22 @@
     <row r="255" spans="1:1">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" s="7" customFormat="1">
+    <row r="256" spans="1:1" s="5" customFormat="1">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" s="7" customFormat="1">
+    <row r="257" spans="1:1" s="5" customFormat="1">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" s="7" customFormat="1">
+    <row r="258" spans="1:1" s="5" customFormat="1">
       <c r="A258" s="3"/>
     </row>
-    <row r="259" spans="1:1" s="7" customFormat="1">
+    <row r="259" spans="1:1" s="5" customFormat="1">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" s="7" customFormat="1">
+    <row r="260" spans="1:1" s="5" customFormat="1">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" s="7" customFormat="1">
+    <row r="261" spans="1:1" s="5" customFormat="1">
       <c r="A261" s="3"/>
     </row>
     <row r="262" spans="1:1">
@@ -1537,10 +1540,10 @@
     <row r="290" spans="1:1">
       <c r="A290" s="3"/>
     </row>
-    <row r="291" spans="1:1" s="7" customFormat="1">
+    <row r="291" spans="1:1" s="5" customFormat="1">
       <c r="A291" s="3"/>
     </row>
-    <row r="292" spans="1:1" s="7" customFormat="1">
+    <row r="292" spans="1:1" s="5" customFormat="1">
       <c r="A292" s="3"/>
     </row>
     <row r="293" spans="1:1">
@@ -1633,49 +1636,49 @@
     <row r="322" spans="1:1">
       <c r="A322" s="3"/>
     </row>
-    <row r="323" spans="1:1" s="7" customFormat="1">
+    <row r="323" spans="1:1" s="5" customFormat="1">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" s="7" customFormat="1">
+    <row r="324" spans="1:1" s="5" customFormat="1">
       <c r="A324" s="3"/>
     </row>
-    <row r="325" spans="1:1" s="7" customFormat="1">
+    <row r="325" spans="1:1" s="5" customFormat="1">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" s="7" customFormat="1">
+    <row r="326" spans="1:1" s="5" customFormat="1">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" s="7" customFormat="1">
+    <row r="327" spans="1:1" s="5" customFormat="1">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" s="7" customFormat="1">
+    <row r="328" spans="1:1" s="5" customFormat="1">
       <c r="A328" s="3"/>
     </row>
-    <row r="329" spans="1:1" s="7" customFormat="1">
+    <row r="329" spans="1:1" s="5" customFormat="1">
       <c r="A329" s="3"/>
     </row>
-    <row r="330" spans="1:1" s="7" customFormat="1">
+    <row r="330" spans="1:1" s="5" customFormat="1">
       <c r="A330" s="3"/>
     </row>
-    <row r="331" spans="1:1" s="7" customFormat="1">
+    <row r="331" spans="1:1" s="5" customFormat="1">
       <c r="A331" s="3"/>
     </row>
-    <row r="332" spans="1:1" s="7" customFormat="1">
+    <row r="332" spans="1:1" s="5" customFormat="1">
       <c r="A332" s="3"/>
     </row>
-    <row r="333" spans="1:1" s="7" customFormat="1">
+    <row r="333" spans="1:1" s="5" customFormat="1">
       <c r="A333" s="3"/>
     </row>
-    <row r="334" spans="1:1" s="7" customFormat="1">
+    <row r="334" spans="1:1" s="5" customFormat="1">
       <c r="A334" s="3"/>
     </row>
-    <row r="335" spans="1:1" s="7" customFormat="1">
+    <row r="335" spans="1:1" s="5" customFormat="1">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" s="7" customFormat="1">
+    <row r="336" spans="1:1" s="5" customFormat="1">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" s="7" customFormat="1">
+    <row r="337" spans="1:1" s="5" customFormat="1">
       <c r="A337" s="3"/>
     </row>
     <row r="338" spans="1:1">
@@ -1825,7 +1828,7 @@
     <row r="386" spans="1:1">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" s="7" customFormat="1">
+    <row r="387" spans="1:1" s="5" customFormat="1">
       <c r="A387" s="3"/>
     </row>
     <row r="388" spans="1:1">
@@ -1852,7 +1855,7 @@
     <row r="395" spans="1:1">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" s="7" customFormat="1">
+    <row r="396" spans="1:1" s="5" customFormat="1">
       <c r="A396" s="3"/>
     </row>
     <row r="397" spans="1:1">
@@ -1930,34 +1933,34 @@
     <row r="421" spans="1:1">
       <c r="A421" s="3"/>
     </row>
-    <row r="422" spans="1:1" s="7" customFormat="1">
+    <row r="422" spans="1:1" s="5" customFormat="1">
       <c r="A422" s="3"/>
     </row>
-    <row r="423" spans="1:1" s="7" customFormat="1">
+    <row r="423" spans="1:1" s="5" customFormat="1">
       <c r="A423" s="3"/>
     </row>
-    <row r="424" spans="1:1" s="7" customFormat="1">
+    <row r="424" spans="1:1" s="5" customFormat="1">
       <c r="A424" s="3"/>
     </row>
-    <row r="425" spans="1:1" s="7" customFormat="1">
+    <row r="425" spans="1:1" s="5" customFormat="1">
       <c r="A425" s="3"/>
     </row>
-    <row r="426" spans="1:1" s="7" customFormat="1">
+    <row r="426" spans="1:1" s="5" customFormat="1">
       <c r="A426" s="3"/>
     </row>
-    <row r="427" spans="1:1" s="7" customFormat="1">
+    <row r="427" spans="1:1" s="5" customFormat="1">
       <c r="A427" s="3"/>
     </row>
-    <row r="428" spans="1:1" s="7" customFormat="1">
+    <row r="428" spans="1:1" s="5" customFormat="1">
       <c r="A428" s="3"/>
     </row>
-    <row r="429" spans="1:1" s="7" customFormat="1">
+    <row r="429" spans="1:1" s="5" customFormat="1">
       <c r="A429" s="3"/>
     </row>
-    <row r="430" spans="1:1" s="7" customFormat="1">
+    <row r="430" spans="1:1" s="5" customFormat="1">
       <c r="A430" s="3"/>
     </row>
-    <row r="431" spans="1:1" s="7" customFormat="1">
+    <row r="431" spans="1:1" s="5" customFormat="1">
       <c r="A431" s="3"/>
     </row>
     <row r="432" spans="1:1">
@@ -2437,76 +2440,76 @@
     <row r="590" spans="1:1" s="6" customFormat="1">
       <c r="A590" s="3"/>
     </row>
-    <row r="591" spans="1:1" s="4" customFormat="1">
+    <row r="591" spans="1:1" s="6" customFormat="1">
       <c r="A591" s="3"/>
     </row>
-    <row r="592" spans="1:1" s="4" customFormat="1">
+    <row r="592" spans="1:1" s="6" customFormat="1">
       <c r="A592" s="3"/>
     </row>
-    <row r="593" spans="1:1" s="4" customFormat="1">
+    <row r="593" spans="1:1" s="6" customFormat="1">
       <c r="A593" s="3"/>
     </row>
-    <row r="594" spans="1:1" s="4" customFormat="1">
+    <row r="594" spans="1:1" s="6" customFormat="1">
       <c r="A594" s="3"/>
     </row>
-    <row r="595" spans="1:1" s="4" customFormat="1">
+    <row r="595" spans="1:1" s="6" customFormat="1">
       <c r="A595" s="3"/>
     </row>
-    <row r="596" spans="1:1" s="4" customFormat="1">
+    <row r="596" spans="1:1" s="6" customFormat="1">
       <c r="A596" s="3"/>
     </row>
-    <row r="597" spans="1:1" s="4" customFormat="1">
+    <row r="597" spans="1:1" s="6" customFormat="1">
       <c r="A597" s="3"/>
     </row>
-    <row r="598" spans="1:1" s="4" customFormat="1">
+    <row r="598" spans="1:1" s="6" customFormat="1">
       <c r="A598" s="3"/>
     </row>
-    <row r="599" spans="1:1" s="4" customFormat="1">
+    <row r="599" spans="1:1" s="6" customFormat="1">
       <c r="A599" s="3"/>
     </row>
-    <row r="600" spans="1:1" s="4" customFormat="1">
+    <row r="600" spans="1:1" s="6" customFormat="1">
       <c r="A600" s="3"/>
     </row>
-    <row r="601" spans="1:1" s="4" customFormat="1">
+    <row r="601" spans="1:1" s="6" customFormat="1">
       <c r="A601" s="3"/>
     </row>
-    <row r="602" spans="1:1" s="4" customFormat="1">
+    <row r="602" spans="1:1" s="6" customFormat="1">
       <c r="A602" s="3"/>
     </row>
-    <row r="603" spans="1:1" s="4" customFormat="1">
+    <row r="603" spans="1:1" s="6" customFormat="1">
       <c r="A603" s="3"/>
     </row>
-    <row r="604" spans="1:1" s="4" customFormat="1">
+    <row r="604" spans="1:1" s="6" customFormat="1">
       <c r="A604" s="3"/>
     </row>
-    <row r="605" spans="1:1" s="4" customFormat="1">
+    <row r="605" spans="1:1" s="6" customFormat="1">
       <c r="A605" s="3"/>
     </row>
-    <row r="606" spans="1:1" s="4" customFormat="1">
+    <row r="606" spans="1:1" s="6" customFormat="1">
       <c r="A606" s="3"/>
     </row>
-    <row r="607" spans="1:1" s="4" customFormat="1">
+    <row r="607" spans="1:1" s="6" customFormat="1">
       <c r="A607" s="3"/>
     </row>
-    <row r="608" spans="1:1" s="4" customFormat="1">
+    <row r="608" spans="1:1" s="6" customFormat="1">
       <c r="A608" s="3"/>
     </row>
-    <row r="609" spans="1:1" s="4" customFormat="1">
+    <row r="609" spans="1:1" s="6" customFormat="1">
       <c r="A609" s="3"/>
     </row>
-    <row r="610" spans="1:1" s="4" customFormat="1">
+    <row r="610" spans="1:1" s="6" customFormat="1">
       <c r="A610" s="3"/>
     </row>
-    <row r="611" spans="1:1" s="4" customFormat="1">
+    <row r="611" spans="1:1" s="6" customFormat="1">
       <c r="A611" s="3"/>
     </row>
-    <row r="612" spans="1:1" s="4" customFormat="1">
+    <row r="612" spans="1:1" s="6" customFormat="1">
       <c r="A612" s="3"/>
     </row>
-    <row r="613" spans="1:1" s="4" customFormat="1">
+    <row r="613" spans="1:1" s="6" customFormat="1">
       <c r="A613" s="3"/>
     </row>
-    <row r="614" spans="1:1" s="4" customFormat="1">
+    <row r="614" spans="1:1" s="6" customFormat="1">
       <c r="A614" s="3"/>
     </row>
   </sheetData>
